--- a/SocioEconomic_data.xlsx
+++ b/SocioEconomic_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mojtaba\Research\Caseload forecast\Data\Combined data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80414A9-BBD9-4678-98CC-0A67A16DD46C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F1B14-6168-49B3-9B7F-8388EE46EE2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8730" xr2:uid="{C5C32916-09ED-49D7-823D-5D25C9D0D494}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>GDP per Capita (dollars)</t>
+  </si>
+  <si>
+    <t>Poverty rate</t>
+  </si>
+  <si>
+    <t>American Community Survey (ACS) obtained from Statista website: https://www.statista.com/statistics/205456/poverty-rate-in-hawaii/</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.0\ "/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -614,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1031,7 +1037,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1193,6 +1199,9 @@
       <c r="G5" s="4">
         <v>4.2</v>
       </c>
+      <c r="K5" s="1">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1216,6 +1225,9 @@
       <c r="G6" s="4">
         <v>4.5999999999999996</v>
       </c>
+      <c r="K6" s="1">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1239,6 +1251,9 @@
       <c r="G7" s="4">
         <v>4</v>
       </c>
+      <c r="K7" s="1">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1262,6 +1277,9 @@
       <c r="G8" s="4">
         <v>3.9</v>
       </c>
+      <c r="K8" s="1">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1285,6 +1303,9 @@
       <c r="G9" s="4">
         <v>3.3</v>
       </c>
+      <c r="K9" s="1">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1308,6 +1329,9 @@
       <c r="G10" s="4">
         <v>2.8</v>
       </c>
+      <c r="K10" s="1">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1334,6 +1358,9 @@
       <c r="J11" s="4">
         <v>0.44</v>
       </c>
+      <c r="K11" s="1">
+        <v>9.3000000000000007</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1360,6 +1387,9 @@
       <c r="J12" s="4">
         <v>0.42</v>
       </c>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1386,6 +1416,9 @@
       <c r="J13" s="4">
         <v>0.43</v>
       </c>
+      <c r="K13" s="1">
+        <v>9.1</v>
+      </c>
       <c r="P13" s="4">
         <v>93.783000000000001</v>
       </c>
@@ -1415,6 +1448,9 @@
       <c r="J14" s="4">
         <v>0.43</v>
       </c>
+      <c r="K14" s="1">
+        <v>10.4</v>
+      </c>
       <c r="P14" s="4">
         <v>93.387</v>
       </c>
@@ -1444,6 +1480,9 @@
       <c r="J15" s="4">
         <v>0.43</v>
       </c>
+      <c r="K15" s="1">
+        <v>10.7</v>
+      </c>
       <c r="P15" s="4">
         <v>92.521000000000001</v>
       </c>
@@ -1473,6 +1512,9 @@
       <c r="J16" s="4">
         <v>0.43</v>
       </c>
+      <c r="K16" s="1">
+        <v>12</v>
+      </c>
       <c r="P16" s="4">
         <v>92.965000000000003</v>
       </c>
@@ -1502,6 +1544,9 @@
       <c r="J17" s="4">
         <v>0.43</v>
       </c>
+      <c r="K17" s="1">
+        <v>11.6</v>
+      </c>
       <c r="P17" s="4">
         <v>93.557999999999993</v>
       </c>
@@ -1531,6 +1576,9 @@
       <c r="J18" s="4">
         <v>0.44</v>
       </c>
+      <c r="K18" s="1">
+        <v>10.8</v>
+      </c>
       <c r="P18" s="4">
         <v>93.141999999999996</v>
       </c>
@@ -1560,6 +1608,9 @@
       <c r="J19" s="4">
         <v>0.43</v>
       </c>
+      <c r="K19" s="1">
+        <v>11.4</v>
+      </c>
       <c r="P19" s="4">
         <v>95.257000000000005</v>
       </c>
@@ -1589,6 +1640,9 @@
       <c r="J20" s="4">
         <v>0.43459999999999999</v>
       </c>
+      <c r="K20" s="1">
+        <v>10.6</v>
+      </c>
       <c r="P20" s="4">
         <v>96.287999999999997</v>
       </c>
@@ -1618,6 +1672,9 @@
       <c r="J21" s="4">
         <v>0.442</v>
       </c>
+      <c r="K21" s="1">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="P21" s="4">
         <v>96.61</v>
       </c>
@@ -1647,6 +1704,9 @@
       <c r="J22" s="4">
         <v>0.44550000000000001</v>
       </c>
+      <c r="K22" s="1">
+        <v>9.5</v>
+      </c>
       <c r="P22" s="4">
         <v>96.370999999999995</v>
       </c>
@@ -1676,6 +1736,9 @@
       <c r="J23" s="4">
         <v>0.44500000000000001</v>
       </c>
+      <c r="K23" s="1">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="P23" s="4">
         <v>96.021999999999991</v>
       </c>
@@ -1705,6 +1768,9 @@
       <c r="J24" s="4">
         <v>0.43969999999999998</v>
       </c>
+      <c r="K24" s="1">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="P24" s="4">
         <v>95.935999999999993</v>
       </c>
@@ -1734,6 +1800,9 @@
       <c r="J25" s="4">
         <v>0.45519999999999999</v>
       </c>
+      <c r="K25" s="1">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="P25" s="4">
         <v>96.397000000000006</v>
       </c>
@@ -1764,6 +1833,9 @@
       <c r="J26" s="4">
         <v>0.45739999999999997</v>
       </c>
+      <c r="K26" s="1">
+        <v>11.2</v>
+      </c>
       <c r="P26" s="4">
         <v>96.48</v>
       </c>
@@ -1793,6 +1865,9 @@
       <c r="J27" s="4">
         <v>0.45119999999999999</v>
       </c>
+      <c r="K27" s="1">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1815,6 +1890,9 @@
       </c>
       <c r="G28" s="5">
         <v>3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>10.1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1936,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D164FE-8EDF-4CC4-BAF8-44DA664FBB40}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,6 +2098,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SocioEconomic_data.xlsx
+++ b/SocioEconomic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mojtaba\Research\Caseload forecast\Data\Combined data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F1B14-6168-49B3-9B7F-8388EE46EE2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F999BA3-2C11-4917-A984-6E249E5BDF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8730" xr2:uid="{C5C32916-09ED-49D7-823D-5D25C9D0D494}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8730" activeTab="1" xr2:uid="{C5C32916-09ED-49D7-823D-5D25C9D0D494}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,8 @@
     <t>Poverty rate</t>
   </si>
   <si>
-    <t>American Community Survey (ACS) obtained from Statista website: https://www.statista.com/statistics/205456/poverty-rate-in-hawaii/</t>
+    <t>2000-2023: American Community Survey (ACS) obtained from Statista website: https://www.statista.com/statistics/205456/poverty-rate-in-hawaii/
+1997-1999: DBEDT report: https://files.hawaii.gov/dbedt/economic/databook/2013-individual/13/132613.pdf</t>
   </si>
 </sst>
 </file>
@@ -606,7 +607,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,6 +627,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="95">
     <cellStyle name="20% - Accent1 2" xfId="14" xr:uid="{4A8D6410-3B5D-4461-8EE1-F8B1CF82F8B4}"/>
@@ -1036,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A36DA7-8C35-4B89-A835-017359FD7140}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1132,9 @@
       <c r="G2" s="1">
         <v>5.9</v>
       </c>
+      <c r="K2" s="1">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1153,6 +1158,9 @@
       <c r="G3" s="1">
         <v>5.8</v>
       </c>
+      <c r="K3" s="1">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1175,6 +1183,9 @@
       </c>
       <c r="G4" s="1">
         <v>5.2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10.8</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2016,7 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D164FE-8EDF-4CC4-BAF8-44DA664FBB40}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2102,7 +2113,7 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
     </row>

--- a/SocioEconomic_data.xlsx
+++ b/SocioEconomic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mojtaba\Research\Caseload forecast\Data\Combined data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F999BA3-2C11-4917-A984-6E249E5BDF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC22A36-D5EE-46F1-9E00-4ADBC84EE36C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8730" activeTab="1" xr2:uid="{C5C32916-09ED-49D7-823D-5D25C9D0D494}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8730" xr2:uid="{C5C32916-09ED-49D7-823D-5D25C9D0D494}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A36DA7-8C35-4B89-A835-017359FD7140}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1210,6 +1210,9 @@
       <c r="G5" s="4">
         <v>4.2</v>
       </c>
+      <c r="J5" s="1">
+        <v>0.42699999999999999</v>
+      </c>
       <c r="K5" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -1236,6 +1239,9 @@
       <c r="G6" s="4">
         <v>4.5999999999999996</v>
       </c>
+      <c r="J6" s="1">
+        <v>0.43230000000000002</v>
+      </c>
       <c r="K6" s="1">
         <v>10.4</v>
       </c>
@@ -1262,6 +1268,9 @@
       <c r="G7" s="4">
         <v>4</v>
       </c>
+      <c r="J7" s="1">
+        <v>0.43369999999999997</v>
+      </c>
       <c r="K7" s="1">
         <v>10.1</v>
       </c>
@@ -1288,6 +1297,9 @@
       <c r="G8" s="4">
         <v>3.9</v>
       </c>
+      <c r="J8" s="1">
+        <v>0.43180000000000002</v>
+      </c>
       <c r="K8" s="1">
         <v>10.9</v>
       </c>
@@ -1314,6 +1326,9 @@
       <c r="G9" s="4">
         <v>3.3</v>
       </c>
+      <c r="J9" s="1">
+        <v>0.43769999999999998</v>
+      </c>
       <c r="K9" s="1">
         <v>10.6</v>
       </c>
@@ -1340,6 +1355,9 @@
       <c r="G10" s="4">
         <v>2.8</v>
       </c>
+      <c r="J10" s="1">
+        <v>0.42009999999999997</v>
+      </c>
       <c r="K10" s="1">
         <v>9.8000000000000007</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>2.5</v>
       </c>
       <c r="J11" s="4">
-        <v>0.44</v>
+        <v>0.43809999999999999</v>
       </c>
       <c r="K11" s="1">
         <v>9.3000000000000007</v>
@@ -1396,7 +1414,7 @@
         <v>2.7</v>
       </c>
       <c r="J12" s="4">
-        <v>0.42</v>
+        <v>0.4274</v>
       </c>
       <c r="K12" s="1">
         <v>8</v>
@@ -1521,7 +1539,7 @@
         <v>6.8</v>
       </c>
       <c r="J16" s="4">
-        <v>0.43</v>
+        <v>0.4284</v>
       </c>
       <c r="K16" s="1">
         <v>12</v>
@@ -1553,7 +1571,7 @@
         <v>5.9</v>
       </c>
       <c r="J17" s="4">
-        <v>0.43</v>
+        <v>0.4294</v>
       </c>
       <c r="K17" s="1">
         <v>11.6</v>
@@ -1585,7 +1603,7 @@
         <v>4.8</v>
       </c>
       <c r="J18" s="4">
-        <v>0.44</v>
+        <v>0.43130000000000002</v>
       </c>
       <c r="K18" s="1">
         <v>10.8</v>
@@ -1617,7 +1635,7 @@
         <v>4.2</v>
       </c>
       <c r="J19" s="4">
-        <v>0.43</v>
+        <v>0.43209999999999998</v>
       </c>
       <c r="K19" s="1">
         <v>11.4</v>
@@ -2027,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D164FE-8EDF-4CC4-BAF8-44DA664FBB40}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
